--- a/XOverAnalysis/ConsolidatedResultsXover.xlsx
+++ b/XOverAnalysis/ConsolidatedResultsXover.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardobertini/RProjects/CoralMethodsPaper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardobertini/RProjects/CoralMethodsPaper/XOverAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05FD03A-DE7D-BE4E-B736-0FA48FB042F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7BF62-E143-0641-9296-4BDDEBD71C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8462A6-1EF4-449C-96A9-11A3AB8260A8}">
   <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/XOverAnalysis/ConsolidatedResultsXover.xlsx
+++ b/XOverAnalysis/ConsolidatedResultsXover.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardobertini/RProjects/CoralMethodsPaper/XOverAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB7BF62-E143-0641-9296-4BDDEBD71C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E689EA9-A792-7E4A-99EC-5F64058E15CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="740" windowWidth="25300" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned" sheetId="2" r:id="rId1"/>
+    <sheet name="T-test" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="268">
   <si>
     <t>Scan_name</t>
   </si>
@@ -799,12 +800,51 @@
   </si>
   <si>
     <t>CrossType</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>OffsetType1Expanded</t>
+  </si>
+  <si>
+    <t>OffsetType2Expanded</t>
+  </si>
+  <si>
+    <t>OffsetType1Normal</t>
+  </si>
+  <si>
+    <t>OffsetType2Normal</t>
+  </si>
+  <si>
+    <t>OffsetType1ExpandedAbsolut</t>
+  </si>
+  <si>
+    <t>OffsetType2ExpandedAbsolut</t>
+  </si>
+  <si>
+    <t>Coral_</t>
+  </si>
+  <si>
+    <t>Coral__</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>OffsetType1NormalAbsolut</t>
+  </si>
+  <si>
+    <t>OffsetType2NormalAbsolut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -828,15 +868,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -859,11 +905,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -875,6 +1014,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8462A6-1EF4-449C-96A9-11A3AB8260A8}">
   <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD61"/>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <selection sqref="A1:AD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5765,95 +5943,95 @@
         <v>1.1462168072148811</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="5">
         <v>0.99989852090255449</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="5">
         <v>180083.5046224597</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="5">
         <v>424.36246844232068</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="5">
         <v>1809.941021073078</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="5">
         <v>1667.2717342294591</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="5">
         <v>-2.0594685566516242E-2</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="5">
         <v>1.0855705065434671</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="5">
         <v>43.480519480519483</v>
       </c>
-      <c r="W50">
+      <c r="W50" s="5">
         <v>1848</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="5">
         <v>80352</v>
       </c>
-      <c r="Y50">
+      <c r="Y50" s="5">
         <v>3.6629800000000001</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="5">
         <v>141.41999999999999</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="5">
         <v>0.286825</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="5">
         <v>2.0243199999999999</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="5">
         <v>1</v>
       </c>
-      <c r="AD50">
+      <c r="AD50" s="5">
         <f t="shared" si="0"/>
         <v>1.1083976067368921</v>
       </c>
@@ -6230,95 +6408,95 @@
         <v>1.448804564177218</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L55" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="5">
         <v>0.99989907553209878</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="5">
         <v>131965.38565092979</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="5">
         <v>363.27040293826548</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="5">
         <v>1889.11901427253</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="5">
         <v>1371.0367454062459</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="5">
         <v>-4.9260687331389053E-2</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="5">
         <v>1.3778762827489159</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="5">
         <v>37.509813789632609</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="5">
         <v>1987</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="5">
         <v>74532</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="5">
         <v>7.0615699999999997</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="5">
         <v>168.89500000000001</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="5">
         <v>0.33663799999999999</v>
       </c>
-      <c r="AB55">
+      <c r="AB55" s="5">
         <v>3.6032600000000001</v>
       </c>
-      <c r="AC55">
+      <c r="AC55" s="5">
         <v>0.99500379999999999</v>
       </c>
-      <c r="AD55">
+      <c r="AD55" s="5">
         <f t="shared" si="0"/>
         <v>1.4492682319839945</v>
       </c>
@@ -6509,95 +6687,95 @@
         <v>1.2771109390583475</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="5">
         <v>0.99989031764473091</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="5">
         <v>133425.53332437939</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="5">
         <v>365.27459988942479</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="5">
         <v>2080.4356152938931</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="5">
         <v>1630.19017462499</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="5">
         <v>-1.039270482140992E-3</v>
       </c>
-      <c r="U58">
+      <c r="U58" s="5">
         <v>1.276191972984059</v>
       </c>
-      <c r="V58">
+      <c r="V58" s="5">
         <v>45.572361471237883</v>
       </c>
-      <c r="W58">
+      <c r="W58" s="5">
         <v>2082.6</v>
       </c>
-      <c r="X58">
+      <c r="X58" s="5">
         <v>94909</v>
       </c>
-      <c r="Y58">
+      <c r="Y58" s="5">
         <v>7.4537199999999997</v>
       </c>
-      <c r="Z58">
+      <c r="Z58" s="5">
         <v>164.523</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" s="5">
         <v>0.40451100000000001</v>
       </c>
-      <c r="AB58">
+      <c r="AB58" s="5">
         <v>4.8921799999999998</v>
       </c>
-      <c r="AC58">
+      <c r="AC58" s="5">
         <v>0.91556400000000004</v>
       </c>
-      <c r="AD58">
+      <c r="AD58" s="5">
         <f t="shared" si="0"/>
         <v>1.2775196614585673</v>
       </c>
@@ -6788,98 +6966,531 @@
         <v>1.2957002922579413</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L61" t="s">
+      <c r="L61" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="5">
         <v>0.99990488884396833</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="5">
         <v>129159.6895684451</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="5">
         <v>359.38793742757292</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="5">
         <v>1710.679911944618</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="5">
         <v>1323.956591859401</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="5">
         <v>-3.1002844145582918E-3</v>
       </c>
-      <c r="U61">
+      <c r="U61" s="5">
         <v>1.292096676328407</v>
       </c>
-      <c r="V61">
+      <c r="V61" s="5">
         <v>39.743589743589737</v>
       </c>
-      <c r="W61">
+      <c r="W61" s="5">
         <v>1716</v>
       </c>
-      <c r="X61">
+      <c r="X61" s="5">
         <v>68200</v>
       </c>
-      <c r="Y61">
+      <c r="Y61" s="5">
         <v>7.7467199999999998</v>
       </c>
-      <c r="Z61">
+      <c r="Z61" s="5">
         <v>146.899</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" s="5">
         <v>0.35374100000000003</v>
       </c>
-      <c r="AB61">
+      <c r="AB61" s="5">
         <v>4.3683300000000003</v>
       </c>
-      <c r="AC61">
+      <c r="AC61" s="5">
         <v>0.970414</v>
       </c>
-      <c r="AD61">
+      <c r="AD61" s="5">
         <f t="shared" si="0"/>
         <v>1.2961150014669307</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED5DD54-9A7B-094E-B756-316B4FA3DFF2}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="16">
+        <v>-2.5289663713360531E-2</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1.193919480580782E-2</v>
+      </c>
+      <c r="D2" s="15">
+        <f>ABS(B2)</f>
+        <v>2.5289663713360531E-2</v>
+      </c>
+      <c r="E2" s="15">
+        <f>ABS(C2)</f>
+        <v>1.193919480580782E-2</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="16">
+        <v>5.6281720809264357E-2</v>
+      </c>
+      <c r="I2" s="17">
+        <v>8.0316030194902244E-2</v>
+      </c>
+      <c r="J2" s="15">
+        <f>ABS(H2)</f>
+        <v>5.6281720809264357E-2</v>
+      </c>
+      <c r="K2" s="15">
+        <f>ABS(I2)</f>
+        <v>8.0316030194902244E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="16">
+        <v>-2.0872438146721909E-2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1.5379641158281551E-2</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D11" si="0">ABS(B3)</f>
+        <v>2.0872438146721909E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <f>ABS(C3)</f>
+        <v>1.5379641158281551E-2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="16">
+        <v>-1.0919591348019279E-2</v>
+      </c>
+      <c r="I3" s="17">
+        <v>2.1877048183659049E-2</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J11" si="1">ABS(H3)</f>
+        <v>1.0919591348019279E-2</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" ref="K3:K11" si="2">ABS(I3)</f>
+        <v>2.1877048183659049E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="16">
+        <v>-2.707812139168439E-2</v>
+      </c>
+      <c r="C4" s="17">
+        <v>-3.5144256696920888E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <f t="shared" si="0"/>
+        <v>2.707812139168439E-2</v>
+      </c>
+      <c r="E4" s="15">
+        <f>ABS(C4)</f>
+        <v>3.5144256696920888E-2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="16">
+        <v>-8.0604059721407027E-3</v>
+      </c>
+      <c r="I4" s="17">
+        <v>-8.0482247093264618E-3</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="1"/>
+        <v>8.0604059721407027E-3</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" si="2"/>
+        <v>8.0482247093264618E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="16">
+        <v>-8.5243885579799311E-2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>-5.8236834151024409E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>8.5243885579799311E-2</v>
+      </c>
+      <c r="E5" s="15">
+        <f>ABS(C5)</f>
+        <v>5.8236834151024409E-2</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="16">
+        <v>-5.9696003086327831E-2</v>
+      </c>
+      <c r="I5" s="17">
+        <v>-3.3210292504393731E-2</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="1"/>
+        <v>5.9696003086327831E-2</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="2"/>
+        <v>3.3210292504393731E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-1.8179440703636279E-2</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1.69535359260026E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8179440703636279E-2</v>
+      </c>
+      <c r="E6" s="15">
+        <f>ABS(C6)</f>
+        <v>1.69535359260026E-2</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="16">
+        <v>-4.5951135279557326E-3</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1.6661740959150712E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="1"/>
+        <v>4.5951135279557326E-3</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6661740959150712E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="16">
+        <v>4.1859306098632858E-2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>-1.1809490346160389E-3</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>4.1859306098632858E-2</v>
+      </c>
+      <c r="E7" s="15">
+        <f>ABS(C7)</f>
+        <v>1.1809490346160389E-3</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.1013859114454618</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4.7640448122908893E-2</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.1013859114454618</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="2"/>
+        <v>4.7640448122908893E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="16">
+        <v>-3.0338946640142819E-2</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0338946640142819E-2</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4.4393016867885798E-2</v>
+      </c>
+      <c r="I8" s="22">
+        <v>-2.0594685566516242E-2</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="1"/>
+        <v>4.4393016867885798E-2</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0594685566516242E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-8.1053360135245153E-2</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>8.1053360135245153E-2</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="16">
+        <v>-4.2850676323251152E-2</v>
+      </c>
+      <c r="I9" s="22">
+        <v>-4.9260687331389053E-2</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2850676323251152E-2</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="2"/>
+        <v>4.9260687331389053E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="16">
+        <v>-8.875965658822578E-2</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>8.875965658822578E-2</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="16">
+        <v>-3.226970527527085E-3</v>
+      </c>
+      <c r="I10" s="22">
+        <v>-1.039270482140992E-3</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>3.226970527527085E-3</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="2"/>
+        <v>1.039270482140992E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="20">
+        <v>-6.7589759982917288E-2</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>6.7589759982917288E-2</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="20">
+        <v>-2.6718831561252859E-2</v>
+      </c>
+      <c r="I11" s="23">
+        <v>-3.1002844145582918E-3</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>2.6718831561252859E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="2"/>
+        <v>3.1002844145582918E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
